--- a/rki.za.vzd/TerminologyManagementSupportingResources/PractitionerRole.xlsx
+++ b/rki.za.vzd/TerminologyManagementSupportingResources/PractitionerRole.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oro/Projekte/EMIGA/Informationsmodell/github/rki.za.vzd/rki.za.vzd/TerminologyManagementSupportingResources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B76A47-87B1-7841-A613-53A523A07B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D5650F-4C20-8A42-9664-137D9D7BC572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6260" yWindow="1380" windowWidth="49880" windowHeight="29680" xr2:uid="{71C88F08-19D8-445E-B2A1-D2A7FD9C7971}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -131,9 +131,6 @@
     <t>https://emiga.rki.de/fhir/common/CodeSystem/ConceptDesignationUse</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
     <t>PractitionerRole</t>
   </si>
   <si>
@@ -195,6 +192,12 @@
   </si>
   <si>
     <t>Sachbearbeiter/Sachbearbeiterin</t>
+  </si>
+  <si>
+    <t>abbreviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Änderung designation use: short -&gt; abbreviation </t>
   </si>
 </sst>
 </file>
@@ -244,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -268,7 +271,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -601,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -616,8 +618,8 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>36</v>
+      <c r="B3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -625,7 +627,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -657,7 +659,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -665,7 +667,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -725,7 +727,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -765,54 +767,54 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -821,7 +823,7 @@
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -829,18 +831,18 @@
         <v>33</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -848,21 +850,21 @@
         <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -871,7 +873,7 @@
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -879,18 +881,18 @@
         <v>33</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -898,55 +900,55 @@
         <v>33</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -956,17 +958,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B6A51E-8E47-5B49-9A63-F4EDF28637E4}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -991,6 +993,17 @@
         <v>32</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
